--- a/biology/Botanique/Craterispermum_rumpianum/Craterispermum_rumpianum.xlsx
+++ b/biology/Botanique/Craterispermum_rumpianum/Craterispermum_rumpianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craterispermum rumpianum Taedoumg &amp; Hamon est une espèce de plantes de la famille des Rubiacées du genre Craterispermum, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de 1 à 2 mètres de haut[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de 1 à 2 mètres de haut.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du sud-ouest du Cameroun, l'espèce a été collectée par René Letouzey en 1976 près de Lokando aux monts Rumpi, auxquels elle doit son épithète spécifique[2], puis en 2009 près de Dikome-Balue.
-On la retrouve dans la forêt de montagne à 900-1 400 mètres d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du sud-ouest du Cameroun, l'espèce a été collectée par René Letouzey en 1976 près de Lokando aux monts Rumpi, auxquels elle doit son épithète spécifique, puis en 2009 près de Dikome-Balue.
+On la retrouve dans la forêt de montagne à 900-1 400 mètres d'altitude.
 </t>
         </is>
       </c>
